--- a/capstone_project/log_results.xlsx
+++ b/capstone_project/log_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>simname</t>
   </si>
@@ -469,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1064,6 +1064,154 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>6.538559915725273e-08</v>
+      </c>
+      <c r="E9">
+        <v>0.0002031198964687064</v>
+      </c>
+      <c r="F9">
+        <v>103</v>
+      </c>
+      <c r="G9">
+        <v>-1.947856617334764e-06</v>
+      </c>
+      <c r="H9">
+        <v>0.0002569490170571953</v>
+      </c>
+      <c r="I9">
+        <v>-0.0007576942443847656</v>
+      </c>
+      <c r="J9">
+        <v>-0.0001809597015380859</v>
+      </c>
+      <c r="K9">
+        <v>-1.311302185058594e-06</v>
+      </c>
+      <c r="L9">
+        <v>0.0001505613327026367</v>
+      </c>
+      <c r="M9">
+        <v>0.0005565881729125977</v>
+      </c>
+      <c r="N9">
+        <v>4.453056874353933e-07</v>
+      </c>
+      <c r="O9">
+        <v>6.538559915725273e-08</v>
+      </c>
+      <c r="P9">
+        <v>0.0004266728064976633</v>
+      </c>
+      <c r="Q9">
+        <v>0.0002031198964687064</v>
+      </c>
+      <c r="R9">
+        <v>3.986865858195155e-05</v>
+      </c>
+      <c r="S9">
+        <v>0.5339805825242718</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.9636363636363636</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>6.549666409227939e-08</v>
+      </c>
+      <c r="E10">
+        <v>0.0002028722228715196</v>
+      </c>
+      <c r="F10">
+        <v>103</v>
+      </c>
+      <c r="G10">
+        <v>-2.098430741170887e-05</v>
+      </c>
+      <c r="H10">
+        <v>0.0002563086454756558</v>
+      </c>
+      <c r="I10">
+        <v>-0.0007729530334472656</v>
+      </c>
+      <c r="J10">
+        <v>-0.0001891851425170898</v>
+      </c>
+      <c r="K10">
+        <v>-2.110004425048828e-05</v>
+      </c>
+      <c r="L10">
+        <v>0.0001276731491088867</v>
+      </c>
+      <c r="M10">
+        <v>0.0005413293838500977</v>
+      </c>
+      <c r="N10">
+        <v>4.451385393622331e-07</v>
+      </c>
+      <c r="O10">
+        <v>6.549666409227939e-08</v>
+      </c>
+      <c r="P10">
+        <v>0.0004268484772183001</v>
+      </c>
+      <c r="Q10">
+        <v>0.0002028722228715196</v>
+      </c>
+      <c r="R10">
+        <v>3.986865858195155e-05</v>
+      </c>
+      <c r="S10">
+        <v>0.5242718446601942</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0.9814814814814815</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/capstone_project/log_results.xlsx
+++ b/capstone_project/log_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>simname</t>
   </si>
@@ -52,66 +52,54 @@
     <t>max</t>
   </si>
   <si>
-    <t>mse train all feature:</t>
-  </si>
-  <si>
-    <t>mse test all feature:</t>
-  </si>
-  <si>
-    <t>mae train all feature:</t>
-  </si>
-  <si>
-    <t>mae test all feature:</t>
-  </si>
-  <si>
-    <t>mean avg bo spread:</t>
-  </si>
-  <si>
-    <t>how often sign of price change is same:</t>
-  </si>
-  <si>
-    <t>if same sign, how often is actual better than 0.1 percent in both directions:</t>
-  </si>
-  <si>
-    <t>if same sign, how often is actual better than predicted in both directions:</t>
-  </si>
-  <si>
-    <t>if same sign, how often is actual better than predicted by more than 0.001 USD per EUR in both directions:</t>
-  </si>
-  <si>
-    <t>if not same sign, how often is actual worse than -0.1 percent return from predicted in both directions</t>
-  </si>
-  <si>
-    <t>if not same sign, how often is actual worse than -0.1 percent return in both directions</t>
-  </si>
-  <si>
-    <t>500_epochs</t>
-  </si>
-  <si>
-    <t>500_epoch_lookback_40</t>
-  </si>
-  <si>
-    <t>linear regression</t>
-  </si>
-  <si>
-    <t>500_epochs_40_lookback_pca_unshuffled</t>
-  </si>
-  <si>
-    <t>500_epochs_40_lookback_pca_unshuffled_binary</t>
+    <t>mse train</t>
+  </si>
+  <si>
+    <t>mse test</t>
+  </si>
+  <si>
+    <t>mae train</t>
+  </si>
+  <si>
+    <t>mae test</t>
+  </si>
+  <si>
+    <t>how often sign of price change is same</t>
+  </si>
+  <si>
+    <t>if same sign, how often are actual returns better than 1 bp in both directions</t>
+  </si>
+  <si>
+    <t>if same sign, how often are actual returns better than predicted in both directions</t>
+  </si>
+  <si>
+    <t>if not same sign, how often is actual worse than - 1 bp return from predicted in both directions</t>
+  </si>
+  <si>
+    <t>if not same sign, how often is actual worse than - 1 bp return in both directions</t>
+  </si>
+  <si>
+    <t>kaggle linear regression</t>
+  </si>
+  <si>
+    <t>bm_kaggle</t>
+  </si>
+  <si>
+    <t>kaggle param my dataset linear regression</t>
+  </si>
+  <si>
+    <t>kaggle param my dataset</t>
+  </si>
+  <si>
+    <t>kaggle 1 row lookback</t>
+  </si>
+  <si>
+    <t>kaggle bm has 200 epoch and batch size 500 and no period return as a feature</t>
   </si>
   <si>
     <t xml:space="preserve">
-kaggle params but with 500 epochs to account for more features
-</t>
-  </si>
-  <si>
-    <t>500 iterations, lookback 40</t>
-  </si>
-  <si>
-    <t>1 row lookback</t>
-  </si>
-  <si>
-    <t>added directional errors checking and pca as feature with unshuffled data</t>
+    kaggle params with my dataset
+     1 row lookback</t>
   </si>
 </sst>
 </file>
@@ -469,13 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,677 +527,277 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>1.591879850769717e-07</v>
+        <v>7.782519787724596e-06</v>
       </c>
       <c r="E2">
-        <v>0.0002857808973274979</v>
+        <v>0.002333045704290271</v>
       </c>
       <c r="F2">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="G2">
-        <v>-9.291312273810891e-07</v>
+        <v>0.002305152360349894</v>
       </c>
       <c r="H2">
-        <v>0.0004009529048515397</v>
+        <v>0.001576538546942174</v>
       </c>
       <c r="I2">
-        <v>-0.001351475715637207</v>
+        <v>-0.001059770584106445</v>
       </c>
       <c r="J2">
-        <v>-0.0001584887504577637</v>
+        <v>0.0007461309432983398</v>
       </c>
       <c r="K2">
-        <v>6.073713302612305e-05</v>
+        <v>0.003328561782836914</v>
       </c>
       <c r="L2">
-        <v>0.0002399682998657227</v>
+        <v>0.003664731979370117</v>
       </c>
       <c r="M2">
-        <v>0.0007556676864624023</v>
+        <v>0.00449979305267334</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0004062842344865203</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>7.782519787724596e-06</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.01728253439068794</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.002333045704290271</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>70.68965517241379</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
+        <v>0.3296703296703297</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>1.972461834823519e-07</v>
+        <v>1.204458328629698e-07</v>
       </c>
       <c r="E3">
-        <v>0.0003408462393517587</v>
+        <v>0.0002789937425404787</v>
       </c>
       <c r="F3">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="G3">
-        <v>-3.835149839812634e-05</v>
+        <v>9.995578919481111e-05</v>
       </c>
       <c r="H3">
-        <v>0.0004446501049318117</v>
+        <v>0.000333468126519743</v>
       </c>
       <c r="I3">
-        <v>-0.001278877258300781</v>
+        <v>-0.001008391380310059</v>
       </c>
       <c r="J3">
-        <v>-0.0003040432929992676</v>
+        <v>-0.0001115798950195312</v>
       </c>
       <c r="K3">
-        <v>-5.841255187988281e-06</v>
+        <v>0.0001761913299560547</v>
       </c>
       <c r="L3">
-        <v>0.0001778900623321533</v>
+        <v>0.0002391338348388672</v>
       </c>
       <c r="M3">
-        <v>0.00128781795501709</v>
+        <v>0.0008369684219360352</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.399731435318245e-07</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.204458328629698e-07</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0004531881131697446</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.0002789937425404787</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>92.85714285714286</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.9607843137254902</v>
       </c>
       <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>6.796255973522637e-07</v>
+        <v>6.541569064211217e-08</v>
       </c>
       <c r="E4">
-        <v>0.0005363066743139945</v>
+        <v>0.0002024972345679998</v>
       </c>
       <c r="F4">
         <v>103</v>
       </c>
       <c r="G4">
-        <v>-5.084078222977577e-05</v>
+        <v>-2.865073838620447e-05</v>
       </c>
       <c r="H4">
-        <v>0.0008268485152893722</v>
+        <v>0.0002553979575168341</v>
       </c>
       <c r="I4">
-        <v>-0.003179974232077498</v>
+        <v>-0.0007805824279785156</v>
       </c>
       <c r="J4">
-        <v>-0.0004026063010069691</v>
+        <v>-0.0001956820487976074</v>
       </c>
       <c r="K4">
-        <v>-3.077471445500635e-05</v>
+        <v>-2.801418304443359e-05</v>
       </c>
       <c r="L4">
-        <v>0.0003169202525130643</v>
+        <v>0.0001164078712463379</v>
       </c>
       <c r="M4">
-        <v>0.003273717364731255</v>
+        <v>0.0005298852920532227</v>
       </c>
       <c r="N4">
-        <v>4.391704321057167e-07</v>
+        <v>4.454368536244147e-07</v>
       </c>
       <c r="O4">
-        <v>6.796255973522637e-07</v>
+        <v>6.541569064211217e-08</v>
       </c>
       <c r="P4">
-        <v>0.0004235650389862247</v>
+        <v>0.0004268917255103588</v>
       </c>
       <c r="Q4">
-        <v>0.0005363066743139945</v>
+        <v>0.0002024972345679998</v>
       </c>
       <c r="R4">
-        <v>3.986865858195155e-05</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="S4">
-        <v>0.4466019417475728</v>
+        <v>67.27272727272727</v>
       </c>
       <c r="T4">
-        <v>0.1521739130434783</v>
+        <v>100</v>
       </c>
       <c r="U4">
-        <v>0.9782608695652174</v>
+        <v>0.625</v>
       </c>
       <c r="V4">
-        <v>0.1521739130434783</v>
-      </c>
-      <c r="W4">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="X4">
-        <v>0.1052631578947368</v>
+        <v>0.6041666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>6.552409104187973e-08</v>
+        <v>2.459237293805927e-07</v>
       </c>
       <c r="E5">
-        <v>0.0002029046299867332</v>
+        <v>0.0004292516096029431</v>
       </c>
       <c r="F5">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G5">
-        <v>-2.905813198594842e-05</v>
+        <v>0.0003274889553294462</v>
       </c>
       <c r="H5">
-        <v>0.0002555657119955868</v>
+        <v>0.0003742295014961103</v>
       </c>
       <c r="I5">
-        <v>-0.0007729530334472656</v>
+        <v>-0.000641942024230957</v>
       </c>
       <c r="J5">
-        <v>-0.0002006292343139648</v>
+        <v>0.0001497566699981689</v>
       </c>
       <c r="K5">
-        <v>-2.431869506835938e-05</v>
+        <v>0.0003620386123657227</v>
       </c>
       <c r="L5">
-        <v>0.0001162290573120117</v>
+        <v>0.0005681216716766357</v>
       </c>
       <c r="M5">
-        <v>0.0005336999893188477</v>
+        <v>0.001108169555664062</v>
       </c>
       <c r="N5">
-        <v>4.452446376035368e-07</v>
+        <v>1.458378960705886e-06</v>
       </c>
       <c r="O5">
-        <v>6.552409104187973e-08</v>
+        <v>2.459237293805927e-07</v>
       </c>
       <c r="P5">
-        <v>0.0004267731856089085</v>
+        <v>0.0008432333124801517</v>
       </c>
       <c r="Q5">
-        <v>0.0002029046299867332</v>
+        <v>0.0004292516096029431</v>
       </c>
       <c r="R5">
-        <v>3.986865858195155e-05</v>
+        <v>0.8725490196078431</v>
       </c>
       <c r="S5">
-        <v>0.5339805825242718</v>
+        <v>97.75280898876404</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6">
-        <v>4.829370823244972e-07</v>
-      </c>
-      <c r="E6">
-        <v>0.0005944815347902477</v>
-      </c>
-      <c r="F6">
-        <v>102</v>
-      </c>
-      <c r="G6">
-        <v>0.0005063718440485935</v>
-      </c>
-      <c r="H6">
-        <v>0.0004782963898239627</v>
-      </c>
-      <c r="I6">
-        <v>-0.0007251501083374023</v>
-      </c>
-      <c r="J6">
-        <v>0.0001928210258483887</v>
-      </c>
-      <c r="K6">
-        <v>0.0005404949188232422</v>
-      </c>
-      <c r="L6">
-        <v>0.0008309781551361084</v>
-      </c>
-      <c r="M6">
-        <v>0.001593351364135742</v>
-      </c>
-      <c r="N6">
-        <v>5.162411866876937e-07</v>
-      </c>
-      <c r="O6">
-        <v>4.829370823244972e-07</v>
-      </c>
-      <c r="P6">
-        <v>0.0005053849308751523</v>
-      </c>
-      <c r="Q6">
-        <v>0.0005944815347902477</v>
-      </c>
-      <c r="R6">
-        <v>3.986865858195155e-05</v>
-      </c>
-      <c r="S6">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="T6">
-        <v>0.6555555555555556</v>
-      </c>
-      <c r="U6">
-        <v>0.3666666666666666</v>
-      </c>
-      <c r="V6">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="W6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>6.524091844539726e-08</v>
-      </c>
-      <c r="E7">
-        <v>0.000202278490178287</v>
-      </c>
-      <c r="F7">
-        <v>103</v>
-      </c>
-      <c r="G7">
-        <v>-2.314511948497966e-05</v>
-      </c>
-      <c r="H7">
-        <v>0.0002556160616222769</v>
-      </c>
-      <c r="I7">
-        <v>-0.0007721185684204102</v>
-      </c>
-      <c r="J7">
-        <v>-0.0001996159553527832</v>
-      </c>
-      <c r="K7">
-        <v>-1.1444091796875e-05</v>
-      </c>
-      <c r="L7">
-        <v>0.0001239180564880371</v>
-      </c>
-      <c r="M7">
-        <v>0.0005358457565307617</v>
-      </c>
-      <c r="N7">
-        <v>4.452116115771787e-07</v>
-      </c>
-      <c r="O7">
-        <v>6.524091844539726e-08</v>
-      </c>
-      <c r="P7">
-        <v>0.0004263846785761416</v>
-      </c>
-      <c r="Q7">
-        <v>0.000202278490178287</v>
-      </c>
-      <c r="R7">
-        <v>3.986865858195155e-05</v>
-      </c>
-      <c r="S7">
-        <v>0.5533980582524272</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.9824561403508771</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>1.839153696892026e-06</v>
-      </c>
-      <c r="E8">
-        <v>0.001198555924929678</v>
-      </c>
-      <c r="F8">
-        <v>102</v>
-      </c>
-      <c r="G8">
-        <v>0.000571753464493097</v>
-      </c>
-      <c r="H8">
-        <v>0.001235809206047989</v>
-      </c>
-      <c r="I8">
-        <v>-0.002107024192810059</v>
-      </c>
-      <c r="J8">
-        <v>-0.0003632307052612305</v>
-      </c>
-      <c r="K8">
-        <v>0.0008297562599182129</v>
-      </c>
-      <c r="L8">
-        <v>0.001464873552322388</v>
-      </c>
-      <c r="M8">
-        <v>0.002626657485961914</v>
-      </c>
-      <c r="N8">
-        <v>4.570285909721861e-06</v>
-      </c>
-      <c r="O8">
-        <v>1.839153696892026e-06</v>
-      </c>
-      <c r="P8">
-        <v>0.001464044325985014</v>
-      </c>
-      <c r="Q8">
-        <v>0.001198555924929678</v>
-      </c>
-      <c r="R8">
-        <v>3.986865858195155e-05</v>
-      </c>
-      <c r="S8">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="T8">
-        <v>0.675</v>
-      </c>
-      <c r="U8">
-        <v>0.45</v>
-      </c>
-      <c r="V8">
-        <v>0.2375</v>
-      </c>
-      <c r="W8">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="X8">
-        <v>0.1818181818181818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>6.538559915725273e-08</v>
-      </c>
-      <c r="E9">
-        <v>0.0002031198964687064</v>
-      </c>
-      <c r="F9">
-        <v>103</v>
-      </c>
-      <c r="G9">
-        <v>-1.947856617334764e-06</v>
-      </c>
-      <c r="H9">
-        <v>0.0002569490170571953</v>
-      </c>
-      <c r="I9">
-        <v>-0.0007576942443847656</v>
-      </c>
-      <c r="J9">
-        <v>-0.0001809597015380859</v>
-      </c>
-      <c r="K9">
-        <v>-1.311302185058594e-06</v>
-      </c>
-      <c r="L9">
-        <v>0.0001505613327026367</v>
-      </c>
-      <c r="M9">
-        <v>0.0005565881729125977</v>
-      </c>
-      <c r="N9">
-        <v>4.453056874353933e-07</v>
-      </c>
-      <c r="O9">
-        <v>6.538559915725273e-08</v>
-      </c>
-      <c r="P9">
-        <v>0.0004266728064976633</v>
-      </c>
-      <c r="Q9">
-        <v>0.0002031198964687064</v>
-      </c>
-      <c r="R9">
-        <v>3.986865858195155e-05</v>
-      </c>
-      <c r="S9">
-        <v>0.5339805825242718</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.9636363636363636</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>6.549666409227939e-08</v>
-      </c>
-      <c r="E10">
-        <v>0.0002028722228715196</v>
-      </c>
-      <c r="F10">
-        <v>103</v>
-      </c>
-      <c r="G10">
-        <v>-2.098430741170887e-05</v>
-      </c>
-      <c r="H10">
-        <v>0.0002563086454756558</v>
-      </c>
-      <c r="I10">
-        <v>-0.0007729530334472656</v>
-      </c>
-      <c r="J10">
-        <v>-0.0001891851425170898</v>
-      </c>
-      <c r="K10">
-        <v>-2.110004425048828e-05</v>
-      </c>
-      <c r="L10">
-        <v>0.0001276731491088867</v>
-      </c>
-      <c r="M10">
-        <v>0.0005413293838500977</v>
-      </c>
-      <c r="N10">
-        <v>4.451385393622331e-07</v>
-      </c>
-      <c r="O10">
-        <v>6.549666409227939e-08</v>
-      </c>
-      <c r="P10">
-        <v>0.0004268484772183001</v>
-      </c>
-      <c r="Q10">
-        <v>0.0002028722228715196</v>
-      </c>
-      <c r="R10">
-        <v>3.986865858195155e-05</v>
-      </c>
-      <c r="S10">
-        <v>0.5242718446601942</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0.9814814814814815</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
   </sheetData>

--- a/capstone_project/log_results.xlsx
+++ b/capstone_project/log_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>simname</t>
   </si>
@@ -89,6 +89,33 @@
   </si>
   <si>
     <t>kaggle param my dataset</t>
+  </si>
+  <si>
+    <t>bm_with_lookback_10</t>
+  </si>
+  <si>
+    <t>bm_with_lookback_2</t>
+  </si>
+  <si>
+    <t>bm_with_lookback_30</t>
+  </si>
+  <si>
+    <t>bm_with_lookback_60</t>
+  </si>
+  <si>
+    <t>bm_with_lookback_5</t>
+  </si>
+  <si>
+    <t>bm_with_lookback_5_batch_100</t>
+  </si>
+  <si>
+    <t>bm_with_lookback_5_batch_1000</t>
+  </si>
+  <si>
+    <t>bm_with_lookback_5_epochs_500</t>
+  </si>
+  <si>
+    <t>bm_with_lookback_5_epochs_1000</t>
   </si>
   <si>
     <t>kaggle 1 row lookback</t>
@@ -100,6 +127,11 @@
     <t xml:space="preserve">
     kaggle params with my dataset
      1 row lookback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+    kaggle params with my dataset
+    </t>
   </si>
 </sst>
 </file>
@@ -457,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,7 +568,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>7.782519787724596e-06</v>
@@ -604,7 +636,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>1.204458328629698e-07</v>
@@ -672,7 +704,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>6.541569064211217e-08</v>
@@ -740,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>2.459237293805927e-07</v>
@@ -798,6 +830,754 @@
       </c>
       <c r="V5">
         <v>0.5384615384615384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>9.721185989519654e-08</v>
+      </c>
+      <c r="E6">
+        <v>0.0002289266412844881</v>
+      </c>
+      <c r="F6">
+        <v>149</v>
+      </c>
+      <c r="G6">
+        <v>9.696756023913622e-06</v>
+      </c>
+      <c r="H6">
+        <v>0.000312688440317288</v>
+      </c>
+      <c r="I6">
+        <v>-0.0007796287536621094</v>
+      </c>
+      <c r="J6">
+        <v>-0.0001891851425170898</v>
+      </c>
+      <c r="K6">
+        <v>-7.271766662597656e-06</v>
+      </c>
+      <c r="L6">
+        <v>0.0001573562622070312</v>
+      </c>
+      <c r="M6">
+        <v>0.001642346382141113</v>
+      </c>
+      <c r="N6">
+        <v>4.465545373477653e-07</v>
+      </c>
+      <c r="O6">
+        <v>9.721185989519654e-08</v>
+      </c>
+      <c r="P6">
+        <v>0.0004273696686141193</v>
+      </c>
+      <c r="Q6">
+        <v>0.0002289266412844881</v>
+      </c>
+      <c r="R6">
+        <v>0.5100671140939598</v>
+      </c>
+      <c r="S6">
+        <v>69.73684210526316</v>
+      </c>
+      <c r="T6">
+        <v>100</v>
+      </c>
+      <c r="U6">
+        <v>0.6712328767123288</v>
+      </c>
+      <c r="V6">
+        <v>0.6301369863013698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>5.596306209554314e-07</v>
+      </c>
+      <c r="E7">
+        <v>0.0005718405591323972</v>
+      </c>
+      <c r="F7">
+        <v>149</v>
+      </c>
+      <c r="G7">
+        <v>-0.0002262232287618138</v>
+      </c>
+      <c r="H7">
+        <v>0.000715464300963519</v>
+      </c>
+      <c r="I7">
+        <v>-0.001839399337768555</v>
+      </c>
+      <c r="J7">
+        <v>-0.0006899833679199219</v>
+      </c>
+      <c r="K7">
+        <v>-0.0002727508544921875</v>
+      </c>
+      <c r="L7">
+        <v>8.130073547363281e-05</v>
+      </c>
+      <c r="M7">
+        <v>0.002503752708435059</v>
+      </c>
+      <c r="N7">
+        <v>9.090567800740246e-07</v>
+      </c>
+      <c r="O7">
+        <v>5.596306209554314e-07</v>
+      </c>
+      <c r="P7">
+        <v>0.0006403857260011137</v>
+      </c>
+      <c r="Q7">
+        <v>0.0005718405591323972</v>
+      </c>
+      <c r="R7">
+        <v>0.8657718120805369</v>
+      </c>
+      <c r="S7">
+        <v>96.89922480620154</v>
+      </c>
+      <c r="T7">
+        <v>100</v>
+      </c>
+      <c r="U7">
+        <v>0.9</v>
+      </c>
+      <c r="V7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>2.637161173879576e-07</v>
+      </c>
+      <c r="E8">
+        <v>0.0003910056839231402</v>
+      </c>
+      <c r="F8">
+        <v>149</v>
+      </c>
+      <c r="G8">
+        <v>0.0002913419032256875</v>
+      </c>
+      <c r="H8">
+        <v>0.0004243163781138252</v>
+      </c>
+      <c r="I8">
+        <v>-0.0006643533706665039</v>
+      </c>
+      <c r="J8">
+        <v>2.431869506835938e-05</v>
+      </c>
+      <c r="K8">
+        <v>0.0002351999282836914</v>
+      </c>
+      <c r="L8">
+        <v>0.0005376338958740234</v>
+      </c>
+      <c r="M8">
+        <v>0.001869082450866699</v>
+      </c>
+      <c r="N8">
+        <v>6.158539349598868e-07</v>
+      </c>
+      <c r="O8">
+        <v>2.637161173879576e-07</v>
+      </c>
+      <c r="P8">
+        <v>0.0005210117669776082</v>
+      </c>
+      <c r="Q8">
+        <v>0.0003910056839231402</v>
+      </c>
+      <c r="R8">
+        <v>0.8389261744966443</v>
+      </c>
+      <c r="S8">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="T8">
+        <v>100</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>0.5416666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>5.111016321279749e-07</v>
+      </c>
+      <c r="E9">
+        <v>0.0005866137216798961</v>
+      </c>
+      <c r="F9">
+        <v>149</v>
+      </c>
+      <c r="G9">
+        <v>0.0004673004150390625</v>
+      </c>
+      <c r="H9">
+        <v>0.0005428718909037434</v>
+      </c>
+      <c r="I9">
+        <v>-0.001246094703674316</v>
+      </c>
+      <c r="J9">
+        <v>0.0002173185348510742</v>
+      </c>
+      <c r="K9">
+        <v>0.0004645586013793945</v>
+      </c>
+      <c r="L9">
+        <v>0.0007272958755493164</v>
+      </c>
+      <c r="M9">
+        <v>0.002515673637390137</v>
+      </c>
+      <c r="N9">
+        <v>7.922635063550842e-07</v>
+      </c>
+      <c r="O9">
+        <v>5.111016321279749e-07</v>
+      </c>
+      <c r="P9">
+        <v>0.0005984512390568852</v>
+      </c>
+      <c r="Q9">
+        <v>0.0005866137216798961</v>
+      </c>
+      <c r="R9">
+        <v>0.7315436241610739</v>
+      </c>
+      <c r="S9">
+        <v>91.74311926605505</v>
+      </c>
+      <c r="T9">
+        <v>100</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>3.562225572295574e-07</v>
+      </c>
+      <c r="E10">
+        <v>0.0004256275715306401</v>
+      </c>
+      <c r="F10">
+        <v>149</v>
+      </c>
+      <c r="G10">
+        <v>0.0002114348763587491</v>
+      </c>
+      <c r="H10">
+        <v>0.0005600202626506396</v>
+      </c>
+      <c r="I10">
+        <v>-0.001150608062744141</v>
+      </c>
+      <c r="J10">
+        <v>-0.0001085996627807617</v>
+      </c>
+      <c r="K10">
+        <v>0.0001715421676635742</v>
+      </c>
+      <c r="L10">
+        <v>0.0004889965057373047</v>
+      </c>
+      <c r="M10">
+        <v>0.002851247787475586</v>
+      </c>
+      <c r="N10">
+        <v>1.372174097014067e-06</v>
+      </c>
+      <c r="O10">
+        <v>3.562225572295574e-07</v>
+      </c>
+      <c r="P10">
+        <v>0.0008186005870811641</v>
+      </c>
+      <c r="Q10">
+        <v>0.0004256275715306401</v>
+      </c>
+      <c r="R10">
+        <v>0.9194630872483222</v>
+      </c>
+      <c r="S10">
+        <v>97.08029197080292</v>
+      </c>
+      <c r="T10">
+        <v>100</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>3.404433357445669e-07</v>
+      </c>
+      <c r="E11">
+        <v>0.0004171612963546067</v>
+      </c>
+      <c r="F11">
+        <v>149</v>
+      </c>
+      <c r="G11">
+        <v>4.859498683238189e-05</v>
+      </c>
+      <c r="H11">
+        <v>0.0005834091299200664</v>
+      </c>
+      <c r="I11">
+        <v>-0.001374125480651855</v>
+      </c>
+      <c r="J11">
+        <v>-0.0002983808517456055</v>
+      </c>
+      <c r="K11">
+        <v>-4.792213439941406e-05</v>
+      </c>
+      <c r="L11">
+        <v>0.0003175735473632812</v>
+      </c>
+      <c r="M11">
+        <v>0.002721667289733887</v>
+      </c>
+      <c r="N11">
+        <v>9.9640897133213e-07</v>
+      </c>
+      <c r="O11">
+        <v>3.404433357445669e-07</v>
+      </c>
+      <c r="P11">
+        <v>0.0006628945702686906</v>
+      </c>
+      <c r="Q11">
+        <v>0.0004171612963546067</v>
+      </c>
+      <c r="R11">
+        <v>0.9932885906040269</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+      <c r="T11">
+        <v>100</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>1.919204066780367e-07</v>
+      </c>
+      <c r="E12">
+        <v>0.0003486151690594852</v>
+      </c>
+      <c r="F12">
+        <v>149</v>
+      </c>
+      <c r="G12">
+        <v>-0.0001850568208118413</v>
+      </c>
+      <c r="H12">
+        <v>0.0003984215726843488</v>
+      </c>
+      <c r="I12">
+        <v>-0.0012664794921875</v>
+      </c>
+      <c r="J12">
+        <v>-0.0004457235336303711</v>
+      </c>
+      <c r="K12">
+        <v>-0.0002104043960571289</v>
+      </c>
+      <c r="L12">
+        <v>1.645088195800781e-05</v>
+      </c>
+      <c r="M12">
+        <v>0.001492500305175781</v>
+      </c>
+      <c r="N12">
+        <v>7.81466837906919e-07</v>
+      </c>
+      <c r="O12">
+        <v>1.919204066780367e-07</v>
+      </c>
+      <c r="P12">
+        <v>0.0006055481499060988</v>
+      </c>
+      <c r="Q12">
+        <v>0.0003486151690594852</v>
+      </c>
+      <c r="R12">
+        <v>0.7449664429530202</v>
+      </c>
+      <c r="S12">
+        <v>88.28828828828829</v>
+      </c>
+      <c r="T12">
+        <v>100</v>
+      </c>
+      <c r="U12">
+        <v>0.9736842105263158</v>
+      </c>
+      <c r="V12">
+        <v>0.7368421052631579</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>2.508839997972245e-07</v>
+      </c>
+      <c r="E13">
+        <v>0.0004012952849734575</v>
+      </c>
+      <c r="F13">
+        <v>149</v>
+      </c>
+      <c r="G13">
+        <v>0.0003498944660161165</v>
+      </c>
+      <c r="H13">
+        <v>0.0003596190075350684</v>
+      </c>
+      <c r="I13">
+        <v>-0.0004304647445678711</v>
+      </c>
+      <c r="J13">
+        <v>0.000124812126159668</v>
+      </c>
+      <c r="K13">
+        <v>0.0003255605697631836</v>
+      </c>
+      <c r="L13">
+        <v>0.0005905628204345703</v>
+      </c>
+      <c r="M13">
+        <v>0.001607775688171387</v>
+      </c>
+      <c r="N13">
+        <v>4.578559753554146e-07</v>
+      </c>
+      <c r="O13">
+        <v>2.508839997972245e-07</v>
+      </c>
+      <c r="P13">
+        <v>0.000457224523415789</v>
+      </c>
+      <c r="Q13">
+        <v>0.0004012952849734575</v>
+      </c>
+      <c r="R13">
+        <v>0.6644295302013423</v>
+      </c>
+      <c r="S13">
+        <v>86.86868686868686</v>
+      </c>
+      <c r="T13">
+        <v>100</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>4.70728195978154e-07</v>
+      </c>
+      <c r="E14">
+        <v>0.0005711445119231939</v>
+      </c>
+      <c r="F14">
+        <v>149</v>
+      </c>
+      <c r="G14">
+        <v>-0.0004434193540739533</v>
+      </c>
+      <c r="H14">
+        <v>0.0005253185507756981</v>
+      </c>
+      <c r="I14">
+        <v>-0.001787185668945312</v>
+      </c>
+      <c r="J14">
+        <v>-0.0007714033126831055</v>
+      </c>
+      <c r="K14">
+        <v>-0.0004856586456298828</v>
+      </c>
+      <c r="L14">
+        <v>-0.000166773796081543</v>
+      </c>
+      <c r="M14">
+        <v>0.001739978790283203</v>
+      </c>
+      <c r="N14">
+        <v>1.277044020753237e-06</v>
+      </c>
+      <c r="O14">
+        <v>4.70728195978154e-07</v>
+      </c>
+      <c r="P14">
+        <v>0.0007109062862582505</v>
+      </c>
+      <c r="Q14">
+        <v>0.0005711445119231939</v>
+      </c>
+      <c r="R14">
+        <v>0.6040268456375839</v>
+      </c>
+      <c r="S14">
+        <v>88.88888888888889</v>
+      </c>
+      <c r="T14">
+        <v>100</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0.7796610169491526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>1.306698464986766e-07</v>
+      </c>
+      <c r="E15">
+        <v>0.000272417237283662</v>
+      </c>
+      <c r="F15">
+        <v>149</v>
+      </c>
+      <c r="G15">
+        <v>-8.111832125874974e-06</v>
+      </c>
+      <c r="H15">
+        <v>0.0003626106855024299</v>
+      </c>
+      <c r="I15">
+        <v>-0.0008836984634399414</v>
+      </c>
+      <c r="J15">
+        <v>-0.0002144575119018555</v>
+      </c>
+      <c r="K15">
+        <v>-4.827976226806641e-05</v>
+      </c>
+      <c r="L15">
+        <v>0.0001866817474365234</v>
+      </c>
+      <c r="M15">
+        <v>0.001343250274658203</v>
+      </c>
+      <c r="N15">
+        <v>4.614476836195536e-07</v>
+      </c>
+      <c r="O15">
+        <v>1.306698464986766e-07</v>
+      </c>
+      <c r="P15">
+        <v>0.0004603430861607194</v>
+      </c>
+      <c r="Q15">
+        <v>0.000272417237283662</v>
+      </c>
+      <c r="R15">
+        <v>0.8120805369127517</v>
+      </c>
+      <c r="S15">
+        <v>87.60330578512396</v>
+      </c>
+      <c r="T15">
+        <v>100</v>
+      </c>
+      <c r="U15">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="V15">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>3.05961805224797e-07</v>
+      </c>
+      <c r="E16">
+        <v>0.0004509711288847029</v>
+      </c>
+      <c r="F16">
+        <v>149</v>
+      </c>
+      <c r="G16">
+        <v>0.0004216632586997627</v>
+      </c>
+      <c r="H16">
+        <v>0.0003592044913675236</v>
+      </c>
+      <c r="I16">
+        <v>-0.0004029273986816406</v>
+      </c>
+      <c r="J16">
+        <v>0.000168919563293457</v>
+      </c>
+      <c r="K16">
+        <v>0.000408172607421875</v>
+      </c>
+      <c r="L16">
+        <v>0.0006176233291625977</v>
+      </c>
+      <c r="M16">
+        <v>0.001764178276062012</v>
+      </c>
+      <c r="N16">
+        <v>4.279728500478086e-07</v>
+      </c>
+      <c r="O16">
+        <v>3.05961805224797e-07</v>
+      </c>
+      <c r="P16">
+        <v>0.0004469693813007325</v>
+      </c>
+      <c r="Q16">
+        <v>0.0004509711288847029</v>
+      </c>
+      <c r="R16">
+        <v>0.6510067114093959</v>
+      </c>
+      <c r="S16">
+        <v>86.5979381443299</v>
+      </c>
+      <c r="T16">
+        <v>98.96907216494846</v>
+      </c>
+      <c r="U16">
+        <v>0.9807692307692307</v>
+      </c>
+      <c r="V16">
+        <v>0.8076923076923077</v>
       </c>
     </row>
   </sheetData>

--- a/capstone_project/log_results.xlsx
+++ b/capstone_project/log_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>simname</t>
   </si>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1580,6 +1580,482 @@
         <v>0.8076923076923077</v>
       </c>
     </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>3.489104472009785e-07</v>
+      </c>
+      <c r="E17">
+        <v>0.0004672924114856869</v>
+      </c>
+      <c r="F17">
+        <v>149</v>
+      </c>
+      <c r="G17">
+        <v>0.0003811160990055775</v>
+      </c>
+      <c r="H17">
+        <v>0.0004528101519684569</v>
+      </c>
+      <c r="I17">
+        <v>-0.0006934404373168945</v>
+      </c>
+      <c r="J17">
+        <v>0.0001546144485473633</v>
+      </c>
+      <c r="K17">
+        <v>0.0003474950790405273</v>
+      </c>
+      <c r="L17">
+        <v>0.000616908073425293</v>
+      </c>
+      <c r="M17">
+        <v>0.002237081527709961</v>
+      </c>
+      <c r="N17">
+        <v>4.647617970476858e-07</v>
+      </c>
+      <c r="O17">
+        <v>3.489104472009785e-07</v>
+      </c>
+      <c r="P17">
+        <v>0.000464931974420324</v>
+      </c>
+      <c r="Q17">
+        <v>0.0004672924114856869</v>
+      </c>
+      <c r="R17">
+        <v>0.6442953020134228</v>
+      </c>
+      <c r="S17">
+        <v>85.41666666666667</v>
+      </c>
+      <c r="T17">
+        <v>100</v>
+      </c>
+      <c r="U17">
+        <v>0.9811320754716981</v>
+      </c>
+      <c r="V17">
+        <v>0.8301886792452831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>1.311741613108097e-07</v>
+      </c>
+      <c r="E18">
+        <v>0.0002780096547212452</v>
+      </c>
+      <c r="F18">
+        <v>149</v>
+      </c>
+      <c r="G18">
+        <v>-4.815495254209378e-05</v>
+      </c>
+      <c r="H18">
+        <v>0.0003601748372544264</v>
+      </c>
+      <c r="I18">
+        <v>-0.0008653402328491211</v>
+      </c>
+      <c r="J18">
+        <v>-0.0002702474594116211</v>
+      </c>
+      <c r="K18">
+        <v>-8.535385131835938e-05</v>
+      </c>
+      <c r="L18">
+        <v>0.0001254081726074219</v>
+      </c>
+      <c r="M18">
+        <v>0.001509547233581543</v>
+      </c>
+      <c r="N18">
+        <v>4.539314772955549e-07</v>
+      </c>
+      <c r="O18">
+        <v>1.311741613108097e-07</v>
+      </c>
+      <c r="P18">
+        <v>0.0004548938304651529</v>
+      </c>
+      <c r="Q18">
+        <v>0.0002780096547212452</v>
+      </c>
+      <c r="R18">
+        <v>0.8187919463087249</v>
+      </c>
+      <c r="S18">
+        <v>87.70491803278688</v>
+      </c>
+      <c r="T18">
+        <v>100</v>
+      </c>
+      <c r="U18">
+        <v>0.9259259259259259</v>
+      </c>
+      <c r="V18">
+        <v>0.7037037037037037</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>2.157442082761918e-07</v>
+      </c>
+      <c r="E19">
+        <v>0.0003540731850080192</v>
+      </c>
+      <c r="F19">
+        <v>149</v>
+      </c>
+      <c r="G19">
+        <v>0.000262990893933597</v>
+      </c>
+      <c r="H19">
+        <v>0.0003841489183501533</v>
+      </c>
+      <c r="I19">
+        <v>-0.0006576776504516602</v>
+      </c>
+      <c r="J19">
+        <v>6.198883056640625e-06</v>
+      </c>
+      <c r="K19">
+        <v>0.0002588033676147461</v>
+      </c>
+      <c r="L19">
+        <v>0.0004770755767822266</v>
+      </c>
+      <c r="M19">
+        <v>0.002138376235961914</v>
+      </c>
+      <c r="N19">
+        <v>5.864559966539673e-07</v>
+      </c>
+      <c r="O19">
+        <v>2.157442082761918e-07</v>
+      </c>
+      <c r="P19">
+        <v>0.0005410177982412279</v>
+      </c>
+      <c r="Q19">
+        <v>0.0003540731850080192</v>
+      </c>
+      <c r="R19">
+        <v>0.7046979865771812</v>
+      </c>
+      <c r="S19">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="T19">
+        <v>100</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>0.7954545454545454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>0.00170676619745791</v>
+      </c>
+      <c r="E20">
+        <v>0.04128424823284149</v>
+      </c>
+      <c r="F20">
+        <v>149</v>
+      </c>
+      <c r="G20">
+        <v>-0.04128424913291163</v>
+      </c>
+      <c r="H20">
+        <v>0.001546866489139748</v>
+      </c>
+      <c r="I20">
+        <v>-0.04354000091552734</v>
+      </c>
+      <c r="J20">
+        <v>-0.04242992401123047</v>
+      </c>
+      <c r="K20">
+        <v>-0.04192996025085449</v>
+      </c>
+      <c r="L20">
+        <v>-0.03978991508483887</v>
+      </c>
+      <c r="M20">
+        <v>-0.03842997550964355</v>
+      </c>
+      <c r="N20">
+        <v>0.002308934461325407</v>
+      </c>
+      <c r="O20">
+        <v>0.00170676619745791</v>
+      </c>
+      <c r="P20">
+        <v>0.04353854805231094</v>
+      </c>
+      <c r="Q20">
+        <v>0.04128424823284149</v>
+      </c>
+      <c r="R20">
+        <v>0.4630872483221476</v>
+      </c>
+      <c r="S20">
+        <v>86.95652173913044</v>
+      </c>
+      <c r="T20">
+        <v>100</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>4.073290540418384e-07</v>
+      </c>
+      <c r="E21">
+        <v>0.0004929575952701271</v>
+      </c>
+      <c r="F21">
+        <v>149</v>
+      </c>
+      <c r="G21">
+        <v>-0.0002189426614134104</v>
+      </c>
+      <c r="H21">
+        <v>0.0006015159882303432</v>
+      </c>
+      <c r="I21">
+        <v>-0.00172734260559082</v>
+      </c>
+      <c r="J21">
+        <v>-0.0005975961685180664</v>
+      </c>
+      <c r="K21">
+        <v>-0.0001882314682006836</v>
+      </c>
+      <c r="L21">
+        <v>0.0001941919326782227</v>
+      </c>
+      <c r="M21">
+        <v>0.001809954643249512</v>
+      </c>
+      <c r="N21">
+        <v>1.424211518497032e-06</v>
+      </c>
+      <c r="O21">
+        <v>4.073290540418384e-07</v>
+      </c>
+      <c r="P21">
+        <v>0.000840541732031852</v>
+      </c>
+      <c r="Q21">
+        <v>0.0004929575952701271</v>
+      </c>
+      <c r="R21">
+        <v>0.6510067114093959</v>
+      </c>
+      <c r="S21">
+        <v>84.5360824742268</v>
+      </c>
+      <c r="T21">
+        <v>100</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>0.00170676619745791</v>
+      </c>
+      <c r="E22">
+        <v>0.04128424823284149</v>
+      </c>
+      <c r="F22">
+        <v>149</v>
+      </c>
+      <c r="G22">
+        <v>-0.04128424913291163</v>
+      </c>
+      <c r="H22">
+        <v>0.001546866489139748</v>
+      </c>
+      <c r="I22">
+        <v>-0.04354000091552734</v>
+      </c>
+      <c r="J22">
+        <v>-0.04242992401123047</v>
+      </c>
+      <c r="K22">
+        <v>-0.04192996025085449</v>
+      </c>
+      <c r="L22">
+        <v>-0.03978991508483887</v>
+      </c>
+      <c r="M22">
+        <v>-0.03842997550964355</v>
+      </c>
+      <c r="N22">
+        <v>0.002308934461325407</v>
+      </c>
+      <c r="O22">
+        <v>0.00170676619745791</v>
+      </c>
+      <c r="P22">
+        <v>0.04353854805231094</v>
+      </c>
+      <c r="Q22">
+        <v>0.04128424823284149</v>
+      </c>
+      <c r="R22">
+        <v>0.4630872483221476</v>
+      </c>
+      <c r="S22">
+        <v>86.95652173913044</v>
+      </c>
+      <c r="T22">
+        <v>100</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>9.972435464078444e-07</v>
+      </c>
+      <c r="E23">
+        <v>0.0008536329260095954</v>
+      </c>
+      <c r="F23">
+        <v>149</v>
+      </c>
+      <c r="G23">
+        <v>-0.0007909144331144807</v>
+      </c>
+      <c r="H23">
+        <v>0.0006117265876093547</v>
+      </c>
+      <c r="I23">
+        <v>-0.002318501472473145</v>
+      </c>
+      <c r="J23">
+        <v>-0.001119732856750488</v>
+      </c>
+      <c r="K23">
+        <v>-0.0007796287536621094</v>
+      </c>
+      <c r="L23">
+        <v>-0.0003638267517089844</v>
+      </c>
+      <c r="M23">
+        <v>0.001285910606384277</v>
+      </c>
+      <c r="N23">
+        <v>1.047360910888528e-06</v>
+      </c>
+      <c r="O23">
+        <v>9.972435464078444e-07</v>
+      </c>
+      <c r="P23">
+        <v>0.0006963838241063058</v>
+      </c>
+      <c r="Q23">
+        <v>0.0008536329260095954</v>
+      </c>
+      <c r="R23">
+        <v>0.4630872483221476</v>
+      </c>
+      <c r="S23">
+        <v>86.95652173913044</v>
+      </c>
+      <c r="T23">
+        <v>100</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0.825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
